--- a/biology/Histoire de la zoologie et de la botanique/George_Gaylord_Simpson/George_Gaylord_Simpson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Gaylord_Simpson/George_Gaylord_Simpson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Gaylord Simpson, né le 16 juin 1902 à Chicago et mort le 6 octobre 1984 à Tucson, est un paléontologue américain et systématicien évolutionniste.
 Expert des mammifères éteints et de leurs migrations, Simpson a été l'un des paléontologues les plus influents du XXe siècle, et l'un des plus importants participants à la théorie synthétique de l'évolution dans son domaine de compétence, la paléontologie.
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été professeur de zoologie à l'université Columbia, a collaboré en géologie et en paléontologie à l’American Museum of Natural History de 1945 à 1959, puis pour le Museum of Comparative Zoology de l'université Harvard de 1959 à 1970[1].
-Il obtient la Médaille Daniel Giraud Elliot en 1944 pour son ouvrage Tempo and Mode in Evolution et en 1965 pour son traité Principles of Animal Taxonomy[2]. Il reçoit la médaille d’argent Darwin-Wallace en 1958 et la médaille Darwin en 1962.
-George Gaylord Simpson est devenu membre étranger de la Royal Society le 24 avril 1958. Simpson a également reçu la médaille Darwin de la Royal Society "en reconnaissance de ses contributions remarquables à la théorie générale de l'évolution, basées sur une étude approfondie de la paléontologie, en particulier des vertébrés" en 1962. En 1966, Simpson a reçu le Golden Plate Award de l'American Academy of Achievement[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été professeur de zoologie à l'université Columbia, a collaboré en géologie et en paléontologie à l’American Museum of Natural History de 1945 à 1959, puis pour le Museum of Comparative Zoology de l'université Harvard de 1959 à 1970.
+Il obtient la Médaille Daniel Giraud Elliot en 1944 pour son ouvrage Tempo and Mode in Evolution et en 1965 pour son traité Principles of Animal Taxonomy. Il reçoit la médaille d’argent Darwin-Wallace en 1958 et la médaille Darwin en 1962.
+George Gaylord Simpson est devenu membre étranger de la Royal Society le 24 avril 1958. Simpson a également reçu la médaille Darwin de la Royal Society "en reconnaissance de ses contributions remarquables à la théorie générale de l'évolution, basées sur une étude approfondie de la paléontologie, en particulier des vertébrés" en 1962. En 1966, Simpson a reçu le Golden Plate Award de l'American Academy of Achievement.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1944 : Tempo and Mode in Evolution, Columbia University Press (New York) : 237 p. (Trad. Rythme et modalités de l'évolution, Albin Michel,  coll. « Sciences d'aujourd'hui », 1950)
 1953 : Evolution and Geography : An essay on historical biogeography, with special reference to mammals, Oregon State System of Higher Education, Eugene (Oregon) : 64 p.
@@ -584,7 +600,9 @@
           <t>Orientations bibliographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jay D. Aronson (2002). « Molecules and monkeys » : George Gaylord Simpson and the challenge of molecular evolution, History and Philosophy of the Life Sciences, 24 (3/4) : 441-465.  (ISSN 0391-9714)
 Joseph Allen Cain (1992). Building a temporal biology : Simpson's program for paleontology during an American expansion of biology, Earth Sciences History : Journal of the History of the Earth Sciences Society, 11 : 30-36.  (ISSN 0736-623X)
